--- a/Documentation/TaskList.xlsx
+++ b/Documentation/TaskList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A060872-5031-42B4-B753-51932F0A4D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00486CB0-607A-47E8-976F-1B0CD87FDAAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="20325" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="465" windowWidth="10200" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,12 +406,12 @@
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,11 +475,11 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18">
